--- a/playbook_generator/tests/files/nutanix2.xlsx
+++ b/playbook_generator/tests/files/nutanix2.xlsx
@@ -484,6 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -497,12 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -525,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -743,18 +743,7 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -774,6 +763,26 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -930,7 +939,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -940,43 +949,43 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -988,22 +997,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1015,112 +1024,115 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1129,43 +1141,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1174,10 +1186,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1186,16 +1198,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1207,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1222,7 +1234,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1450,17 +1462,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1488,10 +1500,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1739,12 +1751,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2031,7 +2043,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2059,10 +2071,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2313,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB995"/>
+  <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3268,138 +3280,146 @@
       <c r="AB26" s="7"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
+      <c r="A27" t="s" s="27">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s" s="27">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" t="s" s="27">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s" s="27">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s" s="27">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s" s="27">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s" s="27">
+        <v>64</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
       <c r="AB27" s="33"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="23">
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="33"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="23">
         <v>65</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" t="s" s="23">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" t="s" s="23">
         <v>66</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" t="s" s="23">
+      <c r="E29" s="10"/>
+      <c r="F29" t="s" s="23">
         <v>67</v>
       </c>
-      <c r="G28" t="s" s="23">
+      <c r="G29" t="s" s="23">
         <v>68</v>
       </c>
-      <c r="H28" t="s" s="23">
+      <c r="H29" t="s" s="23">
         <v>69</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="44">
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="45">
         <v>70</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" t="s" s="16">
-        <v>71</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" t="s" s="45">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s" s="27">
-        <v>73</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="44">
-        <v>74</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="5"/>
+      <c r="D30" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="E30" s="18"/>
       <c r="F30" t="s" s="46">
-        <v>75</v>
+        <v>72</v>
       </c>
-      <c r="G30" t="s" s="47">
-        <v>35</v>
+      <c r="G30" t="s" s="27">
+        <v>30</v>
       </c>
-      <c r="H30" t="s" s="48">
-        <v>76</v>
+      <c r="H30" t="s" s="27">
+        <v>73</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3416,31 +3436,29 @@
       <c r="AB30" s="7"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>77</v>
+      <c r="A31" t="s" s="45">
+        <v>74</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" t="s" s="23">
-        <v>66</v>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="5"/>
+      <c r="F31" t="s" s="47">
+        <v>75</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" t="s" s="23">
-        <v>67</v>
+      <c r="G31" t="s" s="48">
+        <v>35</v>
       </c>
-      <c r="G31" t="s" s="23">
-        <v>68</v>
-      </c>
-      <c r="H31" t="s" s="23">
-        <v>69</v>
+      <c r="H31" t="s" s="49">
+        <v>76</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="33"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3456,30 +3474,30 @@
       <c r="AB31" s="7"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="50">
-        <v>78</v>
+      <c r="A32" t="s" s="8">
+        <v>77</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" t="s" s="16">
-        <v>79</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" t="s" s="23">
+        <v>66</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" t="s" s="51">
-        <v>80</v>
+      <c r="E32" s="10"/>
+      <c r="F32" t="s" s="23">
+        <v>67</v>
       </c>
-      <c r="G32" t="s" s="27">
-        <v>81</v>
+      <c r="G32" t="s" s="23">
+        <v>68</v>
       </c>
-      <c r="H32" t="s" s="52">
-        <v>76</v>
+      <c r="H32" t="s" s="23">
+        <v>69</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="33"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -3496,20 +3514,30 @@
       <c r="AB32" s="7"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
+      <c r="A33" t="s" s="51">
+        <v>78</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s" s="16">
+        <v>79</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" t="s" s="52">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="27">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="53">
+        <v>76</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="33"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -3526,23 +3554,21 @@
       <c r="AB33" s="7"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="11">
-        <v>82</v>
-      </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="7"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3559,25 +3585,21 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" t="s" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -3594,18 +3616,20 @@
       <c r="AB35" s="7"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="61">
-        <v>83</v>
+      <c r="A36" t="s" s="11">
+        <v>2</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" t="s" s="21">
-        <v>73</v>
+      <c r="B36" s="61"/>
+      <c r="C36" t="s" s="8">
+        <v>3</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -3628,15 +3652,15 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="61">
-        <v>84</v>
+      <c r="A37" t="s" s="62">
+        <v>83</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" t="s" s="16">
-        <v>85</v>
+      <c r="C37" t="s" s="21">
+        <v>73</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="62"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="3"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
@@ -3662,15 +3686,15 @@
       <c r="AB37" s="7"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="61">
-        <v>86</v>
+      <c r="A38" t="s" s="62">
+        <v>84</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" t="s" s="21">
-        <v>73</v>
+      <c r="C38" t="s" s="16">
+        <v>85</v>
       </c>
       <c r="D38" s="18"/>
-      <c r="E38" s="62"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -3695,16 +3719,16 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
     </row>
-    <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" t="s" s="61">
-        <v>87</v>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="s" s="62">
+        <v>86</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64">
-        <v>0</v>
+      <c r="B39" s="5"/>
+      <c r="C39" t="s" s="21">
+        <v>73</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="62"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5"/>
@@ -3729,21 +3753,19 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="66">
-        <v>88</v>
+    <row r="40" ht="15.35" customHeight="1">
+      <c r="A40" t="s" s="62">
+        <v>87</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" t="s" s="68">
-        <v>89</v>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65">
+        <v>0</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" t="s" s="70">
-        <v>90</v>
-      </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="67"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -3766,16 +3788,20 @@
       <c r="AB40" s="7"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="73">
-        <v>91</v>
+      <c r="A41" t="s" s="67">
+        <v>88</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
+      <c r="B41" s="68"/>
+      <c r="C41" t="s" s="69">
+        <v>89</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" t="s" s="71">
+        <v>90</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -3798,20 +3824,16 @@
       <c r="AB41" s="7"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="11">
-        <v>2</v>
+      <c r="A42" t="s" s="74">
+        <v>91</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" t="s" s="76">
-        <v>3</v>
-      </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
-      <c r="F42" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3833,23 +3855,21 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" t="s" s="61">
-        <v>92</v>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="s" s="11">
+        <v>2</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" t="s" s="79">
-        <v>93</v>
+      <c r="B43" s="61"/>
+      <c r="C43" t="s" s="77">
+        <v>3</v>
       </c>
-      <c r="D43" t="s" s="79">
-        <v>94</v>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+      <c r="F43" t="s" s="11">
+        <v>4</v>
       </c>
-      <c r="E43" s="80">
-        <v>25</v>
-      </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="61"/>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -3871,19 +3891,21 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" t="s" s="61">
-        <v>95</v>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="A44" t="s" s="62">
+        <v>92</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" t="s" s="14">
-        <v>96</v>
+      <c r="C44" t="s" s="80">
+        <v>93</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="5"/>
-      <c r="F44" t="s" s="82">
-        <v>97</v>
+      <c r="D44" t="s" s="80">
+        <v>94</v>
       </c>
+      <c r="E44" s="81">
+        <v>25</v>
+      </c>
+      <c r="F44" s="82"/>
       <c r="G44" s="3"/>
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
@@ -3908,8 +3930,8 @@
       <c r="AB44" s="7"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" t="s" s="61">
-        <v>98</v>
+      <c r="A45" t="s" s="62">
+        <v>95</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" t="s" s="14">
@@ -3917,7 +3939,7 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="5"/>
-      <c r="F45" t="s" s="82">
+      <c r="F45" t="s" s="83">
         <v>97</v>
       </c>
       <c r="G45" s="3"/>
@@ -3943,17 +3965,19 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
     </row>
-    <row r="46" ht="15.35" customHeight="1">
-      <c r="A46" t="s" s="61">
-        <v>99</v>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" t="s" s="62">
+        <v>98</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" t="s" s="83">
-        <v>100</v>
+      <c r="C46" t="s" s="14">
+        <v>96</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="81"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+      <c r="F46" t="s" s="83">
+        <v>97</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
@@ -3977,17 +4001,17 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" t="s" s="61">
-        <v>101</v>
+    <row r="47" ht="15.35" customHeight="1">
+      <c r="A47" t="s" s="62">
+        <v>99</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" t="s" s="83">
-        <v>102</v>
+      <c r="C47" t="s" s="84">
+        <v>100</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="81"/>
+      <c r="F47" s="82"/>
       <c r="G47" s="3"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
@@ -4011,17 +4035,17 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
     </row>
-    <row r="48" ht="15.35" customHeight="1">
-      <c r="A48" t="s" s="61">
-        <v>103</v>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" t="s" s="62">
+        <v>101</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" t="s" s="27">
-        <v>104</v>
+      <c r="C48" t="s" s="84">
+        <v>102</v>
       </c>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="81"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="82"/>
       <c r="G48" s="3"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
@@ -4046,21 +4070,19 @@
       <c r="AB48" s="7"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
-      <c r="A49" t="s" s="85">
-        <v>105</v>
+      <c r="A49" t="s" s="62">
+        <v>103</v>
       </c>
-      <c r="B49" s="86"/>
-      <c r="C49" t="s" s="87">
-        <v>106</v>
+      <c r="B49" s="5"/>
+      <c r="C49" t="s" s="27">
+        <v>104</v>
       </c>
-      <c r="D49" s="88">
-        <v>8000</v>
-      </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="7"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -4081,18 +4103,22 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="73">
-        <v>107</v>
+    <row r="50" ht="15.35" customHeight="1">
+      <c r="A50" t="s" s="86">
+        <v>105</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="6"/>
+      <c r="B50" s="87"/>
+      <c r="C50" t="s" s="88">
+        <v>106</v>
+      </c>
+      <c r="D50" s="89">
+        <v>8000</v>
+      </c>
+      <c r="E50" s="72"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -4114,20 +4140,16 @@
       <c r="AB50" s="7"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="11">
-        <v>2</v>
+      <c r="A51" t="s" s="74">
+        <v>107</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" t="s" s="76">
-        <v>3</v>
-      </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -4149,21 +4171,21 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52" ht="15.35" customHeight="1">
-      <c r="A52" t="s" s="61">
-        <v>108</v>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="s" s="11">
+        <v>2</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" t="s" s="79">
-        <v>109</v>
+      <c r="B52" s="61"/>
+      <c r="C52" t="s" s="77">
+        <v>3</v>
       </c>
-      <c r="D52" t="s" s="79">
-        <v>110</v>
+      <c r="D52" s="78"/>
+      <c r="E52" s="79"/>
+      <c r="F52" t="s" s="11">
+        <v>4</v>
       </c>
-      <c r="E52" s="89"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -4185,21 +4207,19 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" ht="13.9" customHeight="1">
-      <c r="A53" t="s" s="61">
-        <v>111</v>
+    <row r="53" ht="15.35" customHeight="1">
+      <c r="A53" t="s" s="62">
+        <v>108</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" t="s" s="27">
-        <v>112</v>
+      <c r="C53" t="s" s="80">
+        <v>109</v>
       </c>
-      <c r="D53" t="s" s="90">
-        <v>94</v>
+      <c r="D53" t="s" s="80">
+        <v>110</v>
       </c>
-      <c r="E53" s="91">
-        <v>514</v>
-      </c>
-      <c r="F53" s="92"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="82"/>
       <c r="G53" s="3"/>
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
@@ -4223,16 +4243,24 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="7"/>
+    <row r="54" ht="13.9" customHeight="1">
+      <c r="A54" t="s" s="62">
+        <v>111</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" t="s" s="27">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s" s="91">
+        <v>94</v>
+      </c>
+      <c r="E54" s="92">
+        <v>514</v>
+      </c>
+      <c r="F54" s="93"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -4253,18 +4281,16 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="73">
-        <v>113</v>
-      </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="6"/>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
@@ -4286,20 +4312,16 @@
       <c r="AB55" s="7"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="11">
-        <v>114</v>
+      <c r="A56" t="s" s="74">
+        <v>113</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" t="s" s="76">
-        <v>115</v>
-      </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="76"/>
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -4321,19 +4343,21 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" t="s" s="93">
-        <v>116</v>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" t="s" s="11">
+        <v>114</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" t="s" s="94">
-        <v>117</v>
+      <c r="B57" s="61"/>
+      <c r="C57" t="s" s="77">
+        <v>115</v>
       </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="5"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="G57" s="60"/>
+      <c r="H57" s="61"/>
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4356,16 +4380,16 @@
       <c r="AB57" s="7"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
-      <c r="A58" t="s" s="93">
-        <v>118</v>
+      <c r="A58" t="s" s="94">
+        <v>116</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" t="s" s="94">
-        <v>119</v>
+      <c r="C58" t="s" s="95">
+        <v>117</v>
       </c>
-      <c r="D58" s="95"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="92"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="82"/>
       <c r="G58" s="3"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
@@ -4390,16 +4414,16 @@
       <c r="AB58" s="7"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" t="s" s="93">
-        <v>120</v>
+      <c r="A59" t="s" s="94">
+        <v>118</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" t="s" s="94">
-        <v>121</v>
+      <c r="C59" t="s" s="95">
+        <v>119</v>
       </c>
-      <c r="D59" s="95"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="92"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="93"/>
       <c r="G59" s="3"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
@@ -4423,16 +4447,20 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
+    <row r="60" ht="15.35" customHeight="1">
+      <c r="A60" t="s" s="94">
+        <v>120</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" t="s" s="95">
+        <v>121</v>
+      </c>
+      <c r="D60" s="96"/>
       <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="7"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -4454,14 +4482,14 @@
       <c r="AB60" s="7"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -4543,7 +4571,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64" ht="13.65" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4573,7 +4601,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" ht="13.65" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -32113,7 +32141,7 @@
       <c r="AA982" s="7"/>
       <c r="AB982" s="7"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" ht="12.75" customHeight="1">
       <c r="A983" s="7"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -32503,58 +32531,88 @@
       <c r="AA995" s="7"/>
       <c r="AB995" s="7"/>
     </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="A996" s="7"/>
+      <c r="B996" s="7"/>
+      <c r="C996" s="7"/>
+      <c r="D996" s="7"/>
+      <c r="E996" s="7"/>
+      <c r="F996" s="7"/>
+      <c r="G996" s="7"/>
+      <c r="H996" s="7"/>
+      <c r="I996" s="7"/>
+      <c r="J996" s="7"/>
+      <c r="K996" s="7"/>
+      <c r="L996" s="7"/>
+      <c r="M996" s="7"/>
+      <c r="N996" s="7"/>
+      <c r="O996" s="7"/>
+      <c r="P996" s="7"/>
+      <c r="Q996" s="7"/>
+      <c r="R996" s="7"/>
+      <c r="S996" s="7"/>
+      <c r="T996" s="7"/>
+      <c r="U996" s="7"/>
+      <c r="V996" s="7"/>
+      <c r="W996" s="7"/>
+      <c r="X996" s="7"/>
+      <c r="Y996" s="7"/>
+      <c r="Z996" s="7"/>
+      <c r="AA996" s="7"/>
+      <c r="AB996" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="126">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="F58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="F57:H57"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F49:H49"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A16:B16"/>
@@ -32572,26 +32630,26 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="F48:H48"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A7:B7"/>
@@ -32602,8 +32660,8 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C24:D24"/>
@@ -32630,10 +32688,11 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C46" r:id="rId1" location="" tooltip="" display="gti-syseng-virtualization.groups@ironmountain.com"/>
-    <hyperlink ref="C47" r:id="rId2" location="" tooltip="" display="uk-prism@ironmountain.com"/>
+    <hyperlink ref="C47" r:id="rId1" location="" tooltip="" display="gti-syseng-virtualization.groups@ironmountain.com"/>
+    <hyperlink ref="C48" r:id="rId2" location="" tooltip="" display="uk-prism@ironmountain.com"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
